--- a/accounts/Private & Domestic/Homeserve/7480K37 - Homeserve Master.xlsx
+++ b/accounts/Private & Domestic/Homeserve/7480K37 - Homeserve Master.xlsx
@@ -913,7 +913,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>&lt;account_type&gt;</t>
+          <t>SLP</t>
         </is>
       </c>
     </row>

--- a/accounts/Private & Domestic/Homeserve/7480K37 - Homeserve Master.xlsx
+++ b/accounts/Private & Domestic/Homeserve/7480K37 - Homeserve Master.xlsx
@@ -9,16 +9,16 @@
     <sheet name="Price File" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -135,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -221,19 +221,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -263,6 +250,19 @@
       </left>
       <right style="thin">
         <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -292,157 +292,90 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="10" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="10" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,10 +720,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BY11"/>
+  <dimension ref="A1:BY14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="29.7109375" defaultRowHeight="15"/>
@@ -874,563 +807,599 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="31" t="inlineStr">
         <is>
           <t>Account Name:</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Homeserve</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="35" t="n"/>
-      <c r="B2" s="36" t="n"/>
+      <c r="A2" s="22" t="n"/>
+      <c r="B2" s="18" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="21" t="inlineStr">
         <is>
           <t>Account Nr.:</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="17" t="inlineStr">
         <is>
           <t>7480K37</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="35" t="n"/>
-      <c r="B4" s="36" t="n"/>
+      <c r="A4" s="22" t="n"/>
+      <c r="B4" s="18" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="21" t="inlineStr">
         <is>
           <t>Price File Type:</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="17" t="inlineStr">
         <is>
           <t>SLP</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="35" t="n"/>
-      <c r="B6" s="36" t="n"/>
+      <c r="A6" s="22" t="n"/>
+      <c r="B6" s="18" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="19" t="inlineStr">
         <is>
           <t>Prices go Live:</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="27" t="inlineStr">
         <is>
           <t>&lt;date&gt;</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="37" t="n"/>
-      <c r="B8" s="38" t="n"/>
+      <c r="A8" s="20" t="n"/>
+      <c r="B8" s="28" t="n"/>
     </row>
-    <row r="10" customFormat="1" s="34">
-      <c r="G10" s="39" t="n">
+    <row r="10" customFormat="1" s="12">
+      <c r="G10" s="13" t="n">
         <v>44927</v>
       </c>
-      <c r="H10" s="40" t="n"/>
-      <c r="I10" s="41" t="n"/>
-      <c r="J10" s="39" t="n">
+      <c r="H10" s="14" t="n"/>
+      <c r="I10" s="15" t="n"/>
+      <c r="J10" s="13" t="n">
         <v>44958</v>
       </c>
-      <c r="K10" s="40" t="n"/>
-      <c r="L10" s="41" t="n"/>
-      <c r="M10" s="39" t="n">
+      <c r="K10" s="14" t="n"/>
+      <c r="L10" s="15" t="n"/>
+      <c r="M10" s="13" t="n">
         <v>44986</v>
       </c>
-      <c r="N10" s="40" t="n"/>
-      <c r="O10" s="41" t="n"/>
-      <c r="P10" s="39" t="n">
+      <c r="N10" s="14" t="n"/>
+      <c r="O10" s="15" t="n"/>
+      <c r="P10" s="13" t="n">
         <v>45017</v>
       </c>
-      <c r="Q10" s="40" t="n"/>
-      <c r="R10" s="41" t="n"/>
-      <c r="S10" s="39" t="n">
+      <c r="Q10" s="14" t="n"/>
+      <c r="R10" s="15" t="n"/>
+      <c r="S10" s="13" t="n">
         <v>45047</v>
       </c>
-      <c r="T10" s="40" t="n"/>
-      <c r="U10" s="41" t="n"/>
-      <c r="V10" s="39" t="n">
+      <c r="T10" s="14" t="n"/>
+      <c r="U10" s="15" t="n"/>
+      <c r="V10" s="13" t="n">
         <v>45078</v>
       </c>
-      <c r="W10" s="40" t="n"/>
-      <c r="X10" s="41" t="n"/>
-      <c r="Y10" s="39" t="n">
+      <c r="W10" s="14" t="n"/>
+      <c r="X10" s="15" t="n"/>
+      <c r="Y10" s="13" t="n">
         <v>45108</v>
       </c>
-      <c r="Z10" s="40" t="n"/>
-      <c r="AA10" s="41" t="n"/>
-      <c r="AB10" s="39" t="n">
+      <c r="Z10" s="14" t="n"/>
+      <c r="AA10" s="15" t="n"/>
+      <c r="AB10" s="13" t="n">
         <v>45139</v>
       </c>
-      <c r="AC10" s="40" t="n"/>
-      <c r="AD10" s="41" t="n"/>
-      <c r="AE10" s="39" t="n">
+      <c r="AC10" s="14" t="n"/>
+      <c r="AD10" s="15" t="n"/>
+      <c r="AE10" s="13" t="n">
         <v>45170</v>
       </c>
-      <c r="AF10" s="40" t="n"/>
-      <c r="AG10" s="41" t="n"/>
-      <c r="AH10" s="39" t="n">
+      <c r="AF10" s="14" t="n"/>
+      <c r="AG10" s="15" t="n"/>
+      <c r="AH10" s="13" t="n">
         <v>45200</v>
       </c>
-      <c r="AI10" s="40" t="n"/>
-      <c r="AJ10" s="41" t="n"/>
-      <c r="AK10" s="39" t="n">
+      <c r="AI10" s="14" t="n"/>
+      <c r="AJ10" s="15" t="n"/>
+      <c r="AK10" s="13" t="n">
         <v>45231</v>
       </c>
-      <c r="AL10" s="40" t="n"/>
-      <c r="AM10" s="41" t="n"/>
-      <c r="AN10" s="39" t="n">
+      <c r="AL10" s="14" t="n"/>
+      <c r="AM10" s="15" t="n"/>
+      <c r="AN10" s="13" t="n">
         <v>45261</v>
       </c>
-      <c r="AO10" s="40" t="n"/>
-      <c r="AP10" s="41" t="n"/>
-      <c r="AR10" s="42" t="inlineStr">
+      <c r="AO10" s="14" t="n"/>
+      <c r="AP10" s="15" t="n"/>
+      <c r="AR10" s="26" t="inlineStr">
         <is>
           <t>Real Cost and Margin</t>
         </is>
       </c>
-      <c r="AS10" s="40" t="n"/>
-      <c r="AT10" s="40" t="n"/>
-      <c r="AU10" s="40" t="n"/>
-      <c r="AV10" s="40" t="n"/>
-      <c r="AW10" s="40" t="n"/>
-      <c r="AX10" s="41" t="n"/>
-      <c r="AY10" s="25" t="n"/>
-      <c r="AZ10" s="40" t="n"/>
-      <c r="BA10" s="41" t="n"/>
-      <c r="BB10" s="43" t="inlineStr">
+      <c r="AS10" s="14" t="n"/>
+      <c r="AT10" s="14" t="n"/>
+      <c r="AU10" s="14" t="n"/>
+      <c r="AV10" s="14" t="n"/>
+      <c r="AW10" s="14" t="n"/>
+      <c r="AX10" s="15" t="n"/>
+      <c r="AY10" s="23" t="n"/>
+      <c r="AZ10" s="14" t="n"/>
+      <c r="BA10" s="15" t="n"/>
+      <c r="BB10" s="25" t="inlineStr">
         <is>
           <t>Differences &amp; Support Data</t>
         </is>
       </c>
-      <c r="BC10" s="40" t="n"/>
-      <c r="BD10" s="40" t="n"/>
-      <c r="BE10" s="40" t="n"/>
-      <c r="BF10" s="41" t="n"/>
-      <c r="BG10" s="44" t="inlineStr">
+      <c r="BC10" s="14" t="n"/>
+      <c r="BD10" s="14" t="n"/>
+      <c r="BE10" s="14" t="n"/>
+      <c r="BF10" s="15" t="n"/>
+      <c r="BG10" s="16" t="inlineStr">
         <is>
           <t>Feeder &amp; Stock Data</t>
         </is>
       </c>
-      <c r="BH10" s="40" t="n"/>
-      <c r="BI10" s="41" t="n"/>
-      <c r="BJ10" s="32" t="n"/>
-      <c r="BK10" s="44" t="inlineStr">
+      <c r="BH10" s="14" t="n"/>
+      <c r="BI10" s="15" t="n"/>
+      <c r="BJ10" s="11" t="n"/>
+      <c r="BK10" s="16" t="inlineStr">
         <is>
           <t>Spin Data</t>
         </is>
       </c>
-      <c r="BL10" s="40" t="n"/>
-      <c r="BM10" s="40" t="n"/>
-      <c r="BN10" s="41" t="n"/>
-      <c r="BO10" s="45" t="inlineStr">
+      <c r="BL10" s="14" t="n"/>
+      <c r="BM10" s="14" t="n"/>
+      <c r="BN10" s="15" t="n"/>
+      <c r="BO10" s="29" t="inlineStr">
         <is>
           <t>Main Costing Structure</t>
         </is>
       </c>
-      <c r="BP10" s="40" t="n"/>
-      <c r="BQ10" s="40" t="n"/>
-      <c r="BR10" s="40" t="n"/>
-      <c r="BS10" s="40" t="n"/>
-      <c r="BT10" s="40" t="n"/>
-      <c r="BU10" s="40" t="n"/>
-      <c r="BV10" s="46" t="n"/>
+      <c r="BP10" s="14" t="n"/>
+      <c r="BQ10" s="14" t="n"/>
+      <c r="BR10" s="14" t="n"/>
+      <c r="BS10" s="14" t="n"/>
+      <c r="BT10" s="14" t="n"/>
+      <c r="BU10" s="14" t="n"/>
+      <c r="BV10" s="30" t="n"/>
     </row>
-    <row r="11" customFormat="1" s="34">
-      <c r="A11" s="8" t="inlineStr">
+    <row r="11" customFormat="1" s="12">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>WUK Code</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>SPG Group</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>Manufacturer Code</t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="E11" s="1" t="inlineStr">
         <is>
           <t>Supplier Name</t>
         </is>
       </c>
-      <c r="F11" s="8" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>Master Margin (%)</t>
         </is>
       </c>
-      <c r="G11" s="47" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>Sell Price</t>
         </is>
       </c>
-      <c r="H11" s="47" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="I11" s="47" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>Change (%)</t>
         </is>
       </c>
-      <c r="J11" s="47" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>Sell Price</t>
         </is>
       </c>
-      <c r="K11" s="47" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="L11" s="47" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>Change (%)</t>
         </is>
       </c>
-      <c r="M11" s="47" t="inlineStr">
+      <c r="M11" s="2" t="inlineStr">
         <is>
           <t>Sell Price</t>
         </is>
       </c>
-      <c r="N11" s="47" t="inlineStr">
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="O11" s="47" t="inlineStr">
+      <c r="O11" s="2" t="inlineStr">
         <is>
           <t>Change (%)</t>
         </is>
       </c>
-      <c r="P11" s="47" t="inlineStr">
+      <c r="P11" s="2" t="inlineStr">
         <is>
           <t>Sell Price</t>
         </is>
       </c>
-      <c r="Q11" s="47" t="inlineStr">
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="R11" s="47" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Change (%)</t>
         </is>
       </c>
-      <c r="S11" s="47" t="inlineStr">
+      <c r="S11" s="2" t="inlineStr">
         <is>
           <t>Sell Price</t>
         </is>
       </c>
-      <c r="T11" s="47" t="inlineStr">
+      <c r="T11" s="2" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="U11" s="47" t="inlineStr">
+      <c r="U11" s="2" t="inlineStr">
         <is>
           <t>Change (%)</t>
         </is>
       </c>
-      <c r="V11" s="47" t="inlineStr">
+      <c r="V11" s="2" t="inlineStr">
         <is>
           <t>Sell Price</t>
         </is>
       </c>
-      <c r="W11" s="47" t="inlineStr">
+      <c r="W11" s="2" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="X11" s="47" t="inlineStr">
+      <c r="X11" s="2" t="inlineStr">
         <is>
           <t>Change (%)</t>
         </is>
       </c>
-      <c r="Y11" s="47" t="inlineStr">
+      <c r="Y11" s="2" t="inlineStr">
         <is>
           <t>Sell Price</t>
         </is>
       </c>
-      <c r="Z11" s="47" t="inlineStr">
+      <c r="Z11" s="2" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="AA11" s="47" t="inlineStr">
+      <c r="AA11" s="2" t="inlineStr">
         <is>
           <t>Change (%)</t>
         </is>
       </c>
-      <c r="AB11" s="47" t="inlineStr">
+      <c r="AB11" s="2" t="inlineStr">
         <is>
           <t>Sell Price</t>
         </is>
       </c>
-      <c r="AC11" s="47" t="inlineStr">
+      <c r="AC11" s="2" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="AD11" s="47" t="inlineStr">
+      <c r="AD11" s="2" t="inlineStr">
         <is>
           <t>Change (%)</t>
         </is>
       </c>
-      <c r="AE11" s="47" t="inlineStr">
+      <c r="AE11" s="2" t="inlineStr">
         <is>
           <t>Sell Price</t>
         </is>
       </c>
-      <c r="AF11" s="47" t="inlineStr">
+      <c r="AF11" s="2" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="AG11" s="47" t="inlineStr">
+      <c r="AG11" s="2" t="inlineStr">
         <is>
           <t>Change (%)</t>
         </is>
       </c>
-      <c r="AH11" s="47" t="inlineStr">
+      <c r="AH11" s="2" t="inlineStr">
         <is>
           <t>Sell Price</t>
         </is>
       </c>
-      <c r="AI11" s="47" t="inlineStr">
+      <c r="AI11" s="2" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="AJ11" s="47" t="inlineStr">
+      <c r="AJ11" s="2" t="inlineStr">
         <is>
           <t>Change (%)</t>
         </is>
       </c>
-      <c r="AK11" s="47" t="inlineStr">
+      <c r="AK11" s="2" t="inlineStr">
         <is>
           <t>Sell Price</t>
         </is>
       </c>
-      <c r="AL11" s="47" t="inlineStr">
+      <c r="AL11" s="2" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="AM11" s="47" t="inlineStr">
+      <c r="AM11" s="2" t="inlineStr">
         <is>
           <t>Change (%)</t>
         </is>
       </c>
-      <c r="AN11" s="47" t="inlineStr">
+      <c r="AN11" s="2" t="inlineStr">
         <is>
           <t>Sell Price</t>
         </is>
       </c>
-      <c r="AO11" s="47" t="inlineStr">
+      <c r="AO11" s="2" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="AP11" s="47" t="inlineStr">
+      <c r="AP11" s="2" t="inlineStr">
         <is>
           <t>Change (%)</t>
         </is>
       </c>
-      <c r="AQ11" s="10" t="inlineStr">
+      <c r="AQ11" s="3" t="inlineStr">
         <is>
           <t>12M Usage</t>
         </is>
       </c>
-      <c r="AR11" s="11" t="inlineStr">
+      <c r="AR11" s="4" t="inlineStr">
         <is>
           <t>February Terms</t>
         </is>
       </c>
-      <c r="AS11" s="11" t="inlineStr">
+      <c r="AS11" s="4" t="inlineStr">
         <is>
           <t>February Margin (%)</t>
         </is>
       </c>
-      <c r="AT11" s="11" t="inlineStr">
+      <c r="AT11" s="4" t="inlineStr">
         <is>
           <t>March Terms</t>
         </is>
       </c>
-      <c r="AU11" s="11" t="inlineStr">
+      <c r="AU11" s="4" t="inlineStr">
         <is>
           <t>March Margin (%)</t>
         </is>
       </c>
-      <c r="AV11" s="11" t="inlineStr">
+      <c r="AV11" s="4" t="inlineStr">
         <is>
           <t>Manual Margin (%)</t>
         </is>
       </c>
-      <c r="AW11" s="11" t="inlineStr">
+      <c r="AW11" s="4" t="inlineStr">
         <is>
           <t>Manual Increase (%)</t>
         </is>
       </c>
-      <c r="AX11" s="11" t="inlineStr">
+      <c r="AX11" s="4" t="inlineStr">
         <is>
           <t>Above March Trade</t>
         </is>
       </c>
-      <c r="AY11" s="48" t="inlineStr">
+      <c r="AY11" s="5" t="inlineStr">
         <is>
           <t>WUK Reference</t>
         </is>
       </c>
-      <c r="AZ11" s="48" t="inlineStr">
+      <c r="AZ11" s="5" t="inlineStr">
         <is>
           <t>February Support</t>
         </is>
       </c>
-      <c r="BA11" s="48" t="inlineStr">
+      <c r="BA11" s="5" t="inlineStr">
         <is>
           <t>March Support</t>
         </is>
       </c>
-      <c r="BB11" s="13" t="inlineStr">
+      <c r="BB11" s="6" t="inlineStr">
         <is>
           <t>SLP Change (%)</t>
         </is>
       </c>
-      <c r="BC11" s="13" t="inlineStr">
+      <c r="BC11" s="6" t="inlineStr">
         <is>
           <t>Original M. Change (%)</t>
         </is>
       </c>
-      <c r="BD11" s="13" t="inlineStr">
+      <c r="BD11" s="6" t="inlineStr">
         <is>
           <t>Previous M. Change (%)</t>
         </is>
       </c>
-      <c r="BE11" s="13" t="inlineStr">
+      <c r="BE11" s="6" t="inlineStr">
         <is>
           <t>Price Change (£)</t>
         </is>
       </c>
-      <c r="BF11" s="13" t="inlineStr">
+      <c r="BF11" s="6" t="inlineStr">
         <is>
           <t>Support Difference (£)</t>
         </is>
       </c>
-      <c r="BG11" s="14" t="inlineStr">
+      <c r="BG11" s="7" t="inlineStr">
         <is>
           <t>LCC</t>
         </is>
       </c>
-      <c r="BH11" s="14" t="inlineStr">
+      <c r="BH11" s="7" t="inlineStr">
         <is>
           <t>FSI</t>
         </is>
       </c>
-      <c r="BI11" s="14" t="inlineStr">
+      <c r="BI11" s="7" t="inlineStr">
         <is>
           <t>Product Narrative</t>
         </is>
       </c>
-      <c r="BJ11" s="14" t="n"/>
-      <c r="BK11" s="14" t="inlineStr">
+      <c r="BJ11" s="7" t="n"/>
+      <c r="BK11" s="7" t="inlineStr">
         <is>
           <t>HOS</t>
         </is>
       </c>
-      <c r="BL11" s="14" t="inlineStr">
+      <c r="BL11" s="7" t="inlineStr">
         <is>
           <t>Approximate Change</t>
         </is>
       </c>
-      <c r="BM11" s="14" t="inlineStr">
+      <c r="BM11" s="7" t="inlineStr">
         <is>
           <t>Due Date</t>
         </is>
       </c>
-      <c r="BN11" s="14" t="inlineStr">
+      <c r="BN11" s="7" t="inlineStr">
         <is>
           <t>Flag</t>
         </is>
       </c>
-      <c r="BO11" s="49" t="inlineStr">
+      <c r="BO11" s="8" t="inlineStr">
         <is>
           <t>February Invoice</t>
         </is>
       </c>
-      <c r="BP11" s="49" t="inlineStr">
+      <c r="BP11" s="8" t="inlineStr">
         <is>
           <t>March Invoice</t>
         </is>
       </c>
-      <c r="BQ11" s="49" t="inlineStr">
+      <c r="BQ11" s="8" t="inlineStr">
         <is>
           <t>February Nett Cost</t>
         </is>
       </c>
-      <c r="BR11" s="49" t="inlineStr">
+      <c r="BR11" s="8" t="inlineStr">
         <is>
           <t>March Nett Cost</t>
         </is>
       </c>
-      <c r="BS11" s="49" t="inlineStr">
+      <c r="BS11" s="8" t="inlineStr">
         <is>
           <t>February Trade</t>
         </is>
       </c>
-      <c r="BT11" s="49" t="inlineStr">
+      <c r="BT11" s="8" t="inlineStr">
         <is>
           <t>March Trade</t>
         </is>
       </c>
-      <c r="BU11" s="49" t="inlineStr">
+      <c r="BU11" s="8" t="inlineStr">
         <is>
           <t>February SLP</t>
         </is>
       </c>
-      <c r="BV11" s="49" t="inlineStr">
+      <c r="BV11" s="8" t="inlineStr">
         <is>
           <t>March SLP</t>
         </is>
       </c>
-      <c r="BW11" s="16" t="inlineStr">
+      <c r="BW11" s="9" t="inlineStr">
         <is>
           <t>Terms</t>
         </is>
       </c>
-      <c r="BX11" s="17" t="inlineStr">
+      <c r="BX11" s="10" t="inlineStr">
         <is>
           <t>Estimator Comments</t>
         </is>
       </c>
-      <c r="BY11" s="17" t="inlineStr">
+      <c r="BY11" s="10" t="inlineStr">
         <is>
           <t>Account Manager Comments</t>
         </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111111</v>
+      </c>
+      <c r="B12" t="n">
+        <v>99</v>
+      </c>
+      <c r="J12" t="n">
+        <v>99</v>
+      </c>
+      <c r="M12" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>555555</v>
+      </c>
+      <c r="B13" t="n">
+        <v>99</v>
+      </c>
+      <c r="J13" t="n">
+        <v>99</v>
+      </c>
+      <c r="M13" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>515151</v>
+      </c>
+      <c r="B14" t="n">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1444,8 +1413,8 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="S10:U10"/>
+    <mergeCell ref="AK10:AM10"/>
     <mergeCell ref="BK10:BN10"/>
-    <mergeCell ref="AK10:AM10"/>
     <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="AY10:BA10"/>
